--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/139.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/139.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1108736763571874</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.604547895027715</v>
+        <v>-1.606146311445396</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04291000813517847</v>
+        <v>-0.04214031278486244</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1465324089477666</v>
+        <v>-0.1499559005365957</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1096014777520628</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.586358530061964</v>
+        <v>-1.588922607210563</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0733971844956515</v>
+        <v>-0.07181214724050171</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.12039739545769</v>
+        <v>-0.1244379025420689</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1144781952694882</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.635051598588962</v>
+        <v>-1.637377211840684</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1212615319552841</v>
+        <v>-0.1194939084820634</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1158642203883441</v>
+        <v>-0.1194435398701818</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1253452810832174</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.729144887641195</v>
+        <v>-1.731169076231188</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1480765217057626</v>
+        <v>-0.1469038774603936</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1266856018472863</v>
+        <v>-0.1306269457270232</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1363182600816206</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760155425359501</v>
+        <v>-1.76019005378017</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1091463067786327</v>
+        <v>-0.1090109411342009</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1168338161670653</v>
+        <v>-0.1204225797636308</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1395359607333269</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.620664276810713</v>
+        <v>-1.619080026565124</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04466189141718614</v>
+        <v>-0.04449032333296436</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1177593394103901</v>
+        <v>-0.1209199698059619</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1279066033713806</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.331980512858999</v>
+        <v>-1.332346472304702</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.009249609226163266</v>
+        <v>-0.006943671213457759</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1126673875529824</v>
+        <v>-0.1169140911422516</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.09607498900498546</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9109028525764428</v>
+        <v>-0.9136762742681745</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.008939527459267032</v>
+        <v>-0.002955106760081816</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07250943771123791</v>
+        <v>-0.07680178785502488</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04136422749894766</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3842706830099012</v>
+        <v>-0.3909004515488197</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05553993756449519</v>
+        <v>-0.04761632530786753</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02524164349857825</v>
+        <v>-0.02920817168425599</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.03886888048440277</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1801883140797384</v>
+        <v>0.1704687460057067</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1147986094432235</v>
+        <v>-0.1030202243585304</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05718186778833226</v>
+        <v>0.05287062941508968</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1441067893739683</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8594767281256271</v>
+        <v>0.8458535926307696</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2436981833247794</v>
+        <v>-0.2287324095194525</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1370066735059753</v>
+        <v>0.1322641538934964</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2703912271023754</v>
       </c>
       <c r="E13" t="n">
-        <v>1.552817984886488</v>
+        <v>1.536097179760911</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4484355724897238</v>
+        <v>-0.4305499932143841</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2556892892711685</v>
+        <v>0.2508775128173523</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4093793871922299</v>
       </c>
       <c r="E14" t="n">
-        <v>2.276537810688453</v>
+        <v>2.256654801148183</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6793158452403513</v>
+        <v>-0.6600278149279326</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3764889607545111</v>
+        <v>0.3707107365602162</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5493590097076837</v>
       </c>
       <c r="E15" t="n">
-        <v>3.00891316763845</v>
+        <v>2.986097760475197</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9270577978279123</v>
+        <v>-0.9053284638583564</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4886079167838804</v>
+        <v>0.482518036803568</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6787523100932987</v>
       </c>
       <c r="E16" t="n">
-        <v>3.629515852765764</v>
+        <v>3.606613874550839</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.211080104151894</v>
+        <v>-1.184168312225455</v>
       </c>
       <c r="G16" t="n">
-        <v>0.634220425695407</v>
+        <v>0.6255129519163716</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8008911675511907</v>
       </c>
       <c r="E17" t="n">
-        <v>4.223599463737404</v>
+        <v>4.198657556741273</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.465554136521258</v>
+        <v>-1.434671094351778</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7838356652324013</v>
+        <v>0.7744891396901178</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9260398638063135</v>
       </c>
       <c r="E18" t="n">
-        <v>4.752139344478961</v>
+        <v>4.72772945594583</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.706734790401677</v>
+        <v>-1.674428834946541</v>
       </c>
       <c r="G18" t="n">
-        <v>0.920554966108579</v>
+        <v>0.9097634910129415</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.062924904724161</v>
       </c>
       <c r="E19" t="n">
-        <v>5.18217396057128</v>
+        <v>5.157110854102809</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.995888399061098</v>
+        <v>-1.960236078954077</v>
       </c>
       <c r="G19" t="n">
-        <v>1.065865263348816</v>
+        <v>1.054239558118889</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.205145939312835</v>
       </c>
       <c r="E20" t="n">
-        <v>5.519774303765216</v>
+        <v>5.494542777250765</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.249625790481694</v>
+        <v>-2.212675691609161</v>
       </c>
       <c r="G20" t="n">
-        <v>1.216673609379756</v>
+        <v>1.204929852715732</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.338147627877918</v>
       </c>
       <c r="E21" t="n">
-        <v>5.804497048598176</v>
+        <v>5.779204135337995</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.47194890827937</v>
+        <v>-2.433590062293272</v>
       </c>
       <c r="G21" t="n">
-        <v>1.353671511640404</v>
+        <v>1.342455051382015</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.445748867616348</v>
       </c>
       <c r="E22" t="n">
-        <v>6.010391341817276</v>
+        <v>5.986357643854135</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.677494556263103</v>
+        <v>-2.639046778196651</v>
       </c>
       <c r="G22" t="n">
-        <v>1.469228125430694</v>
+        <v>1.457246691879353</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.520830294010006</v>
       </c>
       <c r="E23" t="n">
-        <v>6.150242940744842</v>
+        <v>6.124277921319866</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.797729941891459</v>
+        <v>-2.760559480341943</v>
       </c>
       <c r="G23" t="n">
-        <v>1.568340961460756</v>
+        <v>1.556549984223092</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.56192451493146</v>
       </c>
       <c r="E24" t="n">
-        <v>6.254657073175444</v>
+        <v>6.227731902086475</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.870784891368388</v>
+        <v>-2.835735420584824</v>
       </c>
       <c r="G24" t="n">
-        <v>1.616018000644954</v>
+        <v>1.604352944936994</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.570829198934432</v>
       </c>
       <c r="E25" t="n">
-        <v>6.272424601016686</v>
+        <v>6.245535632367507</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.948915265501951</v>
+        <v>-2.913674551395149</v>
       </c>
       <c r="G25" t="n">
-        <v>1.666429111042851</v>
+        <v>1.656413627374014</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.548449286178015</v>
       </c>
       <c r="E26" t="n">
-        <v>6.260945279565041</v>
+        <v>6.234814988132328</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.009969106188522</v>
+        <v>-2.97567122953538</v>
       </c>
       <c r="G26" t="n">
-        <v>1.684975778349137</v>
+        <v>1.67499649712009</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.498672789170209</v>
       </c>
       <c r="E27" t="n">
-        <v>6.164780581349175</v>
+        <v>6.139169716226491</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.023868482039168</v>
+        <v>-2.990822737597021</v>
       </c>
       <c r="G27" t="n">
-        <v>1.691437126842076</v>
+        <v>1.68162783967813</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.42725666319017</v>
       </c>
       <c r="E28" t="n">
-        <v>6.00007364647715</v>
+        <v>5.976553078747553</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.033798181665893</v>
+        <v>-3.001117609659888</v>
       </c>
       <c r="G28" t="n">
-        <v>1.67705374011163</v>
+        <v>1.668006278202394</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.342091344540789</v>
       </c>
       <c r="E29" t="n">
-        <v>5.829229611051173</v>
+        <v>5.807127234549869</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.990609458006085</v>
+        <v>-2.959447814452134</v>
       </c>
       <c r="G29" t="n">
-        <v>1.640064290761064</v>
+        <v>1.631112844018227</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.24934742493465</v>
       </c>
       <c r="E30" t="n">
-        <v>5.635853491903777</v>
+        <v>5.615561237391969</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.961652228231516</v>
+        <v>-2.932144878774052</v>
       </c>
       <c r="G30" t="n">
-        <v>1.570147935412009</v>
+        <v>1.562147196218438</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.154447565610382</v>
       </c>
       <c r="E31" t="n">
-        <v>5.396094177289893</v>
+        <v>5.377281500752106</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.860388495072197</v>
+        <v>-2.833796229027382</v>
       </c>
       <c r="G31" t="n">
-        <v>1.495641740305241</v>
+        <v>1.48761739082485</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.062079407877181</v>
       </c>
       <c r="E32" t="n">
-        <v>5.164500873877316</v>
+        <v>5.145622088536435</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.798814441066035</v>
+        <v>-2.771938064569826</v>
       </c>
       <c r="G32" t="n">
-        <v>1.422188563990623</v>
+        <v>1.414541979099344</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9761952705496074</v>
       </c>
       <c r="E33" t="n">
-        <v>4.869836624274221</v>
+        <v>4.851702349977716</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.674491327779661</v>
+        <v>-2.649406185043492</v>
       </c>
       <c r="G33" t="n">
-        <v>1.348379659354591</v>
+        <v>1.341315461538194</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8989689500434324</v>
       </c>
       <c r="E34" t="n">
-        <v>4.609248314628164</v>
+        <v>4.59348766116658</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.597865715926061</v>
+        <v>-2.573323609786741</v>
       </c>
       <c r="G34" t="n">
-        <v>1.247584196883859</v>
+        <v>1.240866283274148</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.830844767573791</v>
       </c>
       <c r="E35" t="n">
-        <v>4.294746702039316</v>
+        <v>4.281704379600218</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.524188241886658</v>
+        <v>-2.501009236306384</v>
       </c>
       <c r="G35" t="n">
-        <v>1.155935359527005</v>
+        <v>1.149354385580847</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7694007179703718</v>
       </c>
       <c r="E36" t="n">
-        <v>3.955117448198024</v>
+        <v>3.943321748902997</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.428015673575186</v>
+        <v>-2.405597706240061</v>
       </c>
       <c r="G36" t="n">
-        <v>1.075918523476563</v>
+        <v>1.071172855825842</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7126447247043113</v>
       </c>
       <c r="E37" t="n">
-        <v>3.67153901526625</v>
+        <v>3.660827815145798</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.359364042590096</v>
+        <v>-2.337390735656738</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9893222874990848</v>
+        <v>0.9841736709533102</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6576410335428531</v>
       </c>
       <c r="E38" t="n">
-        <v>3.370983212092126</v>
+        <v>3.363602636432347</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.291277484469553</v>
+        <v>-2.269886564611077</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8997968019368655</v>
+        <v>0.8955548204049602</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6033627461522458</v>
       </c>
       <c r="E39" t="n">
-        <v>3.052820431027133</v>
+        <v>3.046928877456104</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.213554781288407</v>
+        <v>-2.193479741415338</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8114848851171692</v>
+        <v>0.8079150097500593</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5485424645689549</v>
       </c>
       <c r="E40" t="n">
-        <v>2.773071586617483</v>
+        <v>2.766169512770579</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.13975217272886</v>
+        <v>-2.119262378817329</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7445827763854047</v>
+        <v>0.7414473302957738</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4942239779262196</v>
       </c>
       <c r="E41" t="n">
-        <v>2.476165933785655</v>
+        <v>2.470042999403796</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.079526266100093</v>
+        <v>-2.060653776835697</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6862889782280338</v>
+        <v>0.6840035024639052</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4402190064460952</v>
       </c>
       <c r="E42" t="n">
-        <v>2.199829562830985</v>
+        <v>2.19558758129908</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.993598201239606</v>
+        <v>-1.976265102675843</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6144444494553851</v>
+        <v>0.6130057959785163</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3880681417611813</v>
       </c>
       <c r="E43" t="n">
-        <v>1.946960242955787</v>
+        <v>1.943434440124074</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.930718498372326</v>
+        <v>-1.912810095819727</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5441440334407326</v>
+        <v>0.5420427179137961</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3383708935768883</v>
       </c>
       <c r="E44" t="n">
-        <v>1.745049792132699</v>
+        <v>1.740886511556859</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.879110346432679</v>
+        <v>-1.86178196992628</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4776464476231424</v>
+        <v>0.4753310654957091</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2924334493582004</v>
       </c>
       <c r="E45" t="n">
-        <v>1.532407678940582</v>
+        <v>1.530380342312347</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.793954337951191</v>
+        <v>-1.776919516010914</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4267143368960947</v>
+        <v>0.4247657012239245</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.249921547381204</v>
       </c>
       <c r="E46" t="n">
-        <v>1.336374615516431</v>
+        <v>1.333621656073276</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.734490256577133</v>
+        <v>-1.718066941065481</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3749511440730003</v>
+        <v>0.373986270351643</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2117820653021764</v>
       </c>
       <c r="E47" t="n">
-        <v>1.181876768665162</v>
+        <v>1.179976927585752</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.703142878766869</v>
+        <v>-1.687050107270691</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3271072588619446</v>
+        <v>0.325031127640949</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1775337486299481</v>
       </c>
       <c r="E48" t="n">
-        <v>1.005177382107947</v>
+        <v>1.004190472118891</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.640554369437029</v>
+        <v>-1.624239661244747</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2561268665868901</v>
+        <v>0.2547779321999354</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1466775002512046</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8588439724388642</v>
+        <v>0.8577342889583472</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.590292003846095</v>
+        <v>-1.573910399841158</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2215551106066418</v>
+        <v>0.2202549708124474</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1176117145183519</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7592919850739597</v>
+        <v>0.7580611021211026</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.539382716396306</v>
+        <v>-1.522151142065867</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1796610176741027</v>
+        <v>0.1780964426675298</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.09031353397498558</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6438439786030394</v>
+        <v>0.6431828905720931</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.502053278915539</v>
+        <v>-1.484650136500878</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1456008179082771</v>
+        <v>0.1439260615632132</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.06377139081010967</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5365116147215455</v>
+        <v>0.5345236285713427</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.458220781435118</v>
+        <v>-1.441336278320925</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1062109893977274</v>
+        <v>0.1054664783533522</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.03811468453179334</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4680512270596934</v>
+        <v>0.464615143317894</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.418531889291521</v>
+        <v>-1.402504439588877</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07430247377071984</v>
+        <v>0.07296770555585685</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.01312730115792957</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3766007161121234</v>
+        <v>0.371625241669692</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.366726984961712</v>
+        <v>-1.349256159724835</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04349891956686538</v>
+        <v>0.04259543259123879</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.0105648104957899</v>
       </c>
       <c r="E55" t="n">
-        <v>0.286524323857449</v>
+        <v>0.2800724194792374</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.335160031484027</v>
+        <v>-1.317696289333196</v>
       </c>
       <c r="G55" t="n">
-        <v>0.008922441529253174</v>
+        <v>0.008947625835193986</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.03320650491299356</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2226034073414281</v>
+        <v>0.2151189464196433</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.315146378356689</v>
+        <v>-1.297496901949544</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008272143351835539</v>
+        <v>-0.00912053965821661</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.05471756527517337</v>
       </c>
       <c r="E57" t="n">
-        <v>0.146746703828584</v>
+        <v>0.1389946596561781</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.322123218111854</v>
+        <v>-1.304589432110125</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04418811166167463</v>
+        <v>-0.04497669524144628</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.07577954931584817</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08344752486547684</v>
+        <v>0.07527364356856237</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.30230867840336</v>
+        <v>-1.285591021316026</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07434474400667451</v>
+        <v>-0.07535998633991345</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.09601080737757968</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04626447116299069</v>
+        <v>0.03706275537986687</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.312700352642187</v>
+        <v>-1.295498684675053</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09931970540435252</v>
+        <v>-0.09991153659396158</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1157030441379528</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.007439487236667475</v>
+        <v>-0.01852845194623082</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.316751090850855</v>
+        <v>-1.300592997561143</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1040275965961629</v>
+        <v>-0.1052238511283514</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1343137327318309</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.04598091944083612</v>
+        <v>-0.0578490236154433</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.296772853153746</v>
+        <v>-1.281141269260109</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1351790090258248</v>
+        <v>-0.136132864613333</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1516240981303796</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.09990209247923378</v>
+        <v>-0.1121448132047105</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.321447176899255</v>
+        <v>-1.305408709062762</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1428161498023757</v>
+        <v>-0.1440974013671145</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1671174711653982</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1433056697491003</v>
+        <v>-0.1561795721422186</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.361301341050589</v>
+        <v>-1.344593915087543</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1617106753344692</v>
+        <v>-0.1625149991054538</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1806433503008837</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1979320033538406</v>
+        <v>-0.2131181398361497</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.402693321883433</v>
+        <v>-1.38526420815327</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1774414224327483</v>
+        <v>-0.1789697949995312</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1915323992643143</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2509795957799164</v>
+        <v>-0.2677114190393427</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.435567498241358</v>
+        <v>-1.418088015899314</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2028571091843905</v>
+        <v>-0.2041666930933126</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2002343216534311</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3177699491540685</v>
+        <v>-0.3337934638089095</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.477675657774394</v>
+        <v>-1.461146882981616</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2088320857688479</v>
+        <v>-0.21037147646948</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2074078860787922</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3050990952275979</v>
+        <v>-0.3229941186176655</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.524032094915821</v>
+        <v>-1.507821271985545</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2419100976029818</v>
+        <v>-0.2436100382539866</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2138088739433601</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3323437921981915</v>
+        <v>-0.3481910167114469</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.554793937612961</v>
+        <v>-1.537284548907612</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2522152007901374</v>
+        <v>-0.2537892199114381</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2199890395305537</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3604038310736189</v>
+        <v>-0.3762400374530251</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.614197419250849</v>
+        <v>-1.595700333546884</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2582610082350534</v>
+        <v>-0.2590920903311001</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2262635018418464</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3868630925026835</v>
+        <v>-0.4024159754402556</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.632232530342712</v>
+        <v>-1.614237556738442</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2686164800340906</v>
+        <v>-0.2694381180154096</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2325014027655727</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3935841541506374</v>
+        <v>-0.408082444276938</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.670527628554397</v>
+        <v>-1.651116037740957</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2872198120287434</v>
+        <v>-0.2877581265682282</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2380429859244752</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3917787542185055</v>
+        <v>-0.4057182675567444</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.703211348598645</v>
+        <v>-1.683411762071804</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2848052666966682</v>
+        <v>-0.2851216445400496</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2419455916138955</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3525431795818433</v>
+        <v>-0.3654029158028699</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.727991131625282</v>
+        <v>-1.709072208796808</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2871049086328885</v>
+        <v>-0.2866075185905574</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2443012823878551</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3109875007603838</v>
+        <v>-0.3240628776010286</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.760412777485834</v>
+        <v>-1.741499363724285</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2918411321688822</v>
+        <v>-0.2915420685358351</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2450075884827154</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2476741556251849</v>
+        <v>-0.2592494922432302</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.779732288180678</v>
+        <v>-1.760785033008021</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2955778535628501</v>
+        <v>-0.2944288196043006</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2437397489620974</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1400647643783421</v>
+        <v>-0.1513567775545533</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.787855800865711</v>
+        <v>-1.769050207413971</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2786209455690778</v>
+        <v>-0.2768832284591618</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2399035216521275</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.05356139552902023</v>
+        <v>-0.06385862862056933</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.774145307309622</v>
+        <v>-1.75536253713514</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2651725261966847</v>
+        <v>-0.262923252872346</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2332271729774356</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08161064455091893</v>
+        <v>0.07246087139879803</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.778026838462749</v>
+        <v>-1.759334574387743</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2374713636809139</v>
+        <v>-0.2342650867308244</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2236179781268312</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2092415590207065</v>
+        <v>0.2002727980675352</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.806749539388244</v>
+        <v>-1.788294165190993</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2208874982188898</v>
+        <v>-0.2180259314563652</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2114256700622096</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3558173676344691</v>
+        <v>0.3464771381686709</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.763645812760985</v>
+        <v>-1.747050929165112</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1946690617153843</v>
+        <v>-0.1913463073503185</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1963722517551276</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4857447760022344</v>
+        <v>0.4774733055197993</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.741992818718813</v>
+        <v>-1.727348144814231</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1660612641857443</v>
+        <v>-0.1630737758935156</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1792484486482578</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6643849281360134</v>
+        <v>0.6543411121229937</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.702561278701548</v>
+        <v>-1.689440255306386</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1401009668181321</v>
+        <v>-0.1374188382354357</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1613354120574024</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8375947143013049</v>
+        <v>0.8288982586561187</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.633247772675951</v>
+        <v>-1.622135984689129</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1213764353511391</v>
+        <v>-0.1172556532915739</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1439761781303657</v>
       </c>
       <c r="E84" t="n">
-        <v>1.019346702237895</v>
+        <v>1.009345384741151</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.5536071271955</v>
+        <v>-1.54484534975678</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1054867123216086</v>
+        <v>-0.1008937245256532</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1281380211629259</v>
       </c>
       <c r="E85" t="n">
-        <v>1.166449807257294</v>
+        <v>1.154957893652677</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.448660976301898</v>
+        <v>-1.440417051154086</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08550296555757508</v>
+        <v>-0.07975936978394887</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1148628430283941</v>
       </c>
       <c r="E86" t="n">
-        <v>1.328087404842783</v>
+        <v>1.317728785005503</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.33177589037323</v>
+        <v>-1.325250007096318</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05539512780533553</v>
+        <v>-0.04963264380225371</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1043946685854986</v>
       </c>
       <c r="E87" t="n">
-        <v>1.468726013330999</v>
+        <v>1.456905129730031</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.201602935022542</v>
+        <v>-1.196116691375249</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03147790725717158</v>
+        <v>-0.0253423807223415</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.09720059626945209</v>
       </c>
       <c r="E88" t="n">
-        <v>1.559251001035244</v>
+        <v>1.54970929712192</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.055781868577443</v>
+        <v>-1.05202625895402</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01738256602592392</v>
+        <v>-0.01157443546832438</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.09508751377983057</v>
       </c>
       <c r="E89" t="n">
-        <v>1.664349831783613</v>
+        <v>1.653980193812484</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9101465363886577</v>
+        <v>-0.9090093075735181</v>
       </c>
       <c r="G89" t="n">
-        <v>0.006764461313949931</v>
+        <v>0.01301016918727106</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.09864644435324248</v>
       </c>
       <c r="E90" t="n">
-        <v>1.708246077038446</v>
+        <v>1.698263647771157</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7190409398237381</v>
+        <v>-0.7208746721000533</v>
       </c>
       <c r="G90" t="n">
-        <v>0.008140154025966732</v>
+        <v>0.01521694399533463</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1092152163103574</v>
       </c>
       <c r="E91" t="n">
-        <v>1.725859351005801</v>
+        <v>1.718447294963596</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5340968411091498</v>
+        <v>-0.5363398183570033</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01005235897802662</v>
+        <v>-0.003940442730016046</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1265289952665984</v>
       </c>
       <c r="E92" t="n">
-        <v>1.698394291358225</v>
+        <v>1.691869982100434</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3701092329755589</v>
+        <v>-0.3735909632718761</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01333418884593855</v>
+        <v>-0.006734326670324767</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1503294036008645</v>
       </c>
       <c r="E93" t="n">
-        <v>1.655053674853211</v>
+        <v>1.64975237845267</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2176308526569187</v>
+        <v>-0.2215517342880787</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02863050666673864</v>
+        <v>-0.02318125246879565</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1801170598156398</v>
       </c>
       <c r="E94" t="n">
-        <v>1.556683775848403</v>
+        <v>1.552640120725781</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.07921790720622145</v>
+        <v>-0.08406273806158496</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03484316013851245</v>
+        <v>-0.02914048886204006</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2141909132291714</v>
       </c>
       <c r="E95" t="n">
-        <v>1.48677056853759</v>
+        <v>1.482763115854759</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02745179462520487</v>
+        <v>0.02289028721167548</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07032312515175125</v>
+        <v>-0.06523274731346483</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2497044753224928</v>
       </c>
       <c r="E96" t="n">
-        <v>1.402626654351098</v>
+        <v>1.399269271565364</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1093873599845122</v>
+        <v>0.1042277253048885</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09941572057075186</v>
+        <v>-0.09436154517225535</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2832301597028727</v>
       </c>
       <c r="E97" t="n">
-        <v>1.322538987440198</v>
+        <v>1.320119720050759</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1725307110546106</v>
+        <v>0.1676748620653979</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1190846635105253</v>
+        <v>-0.1134654152474818</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3099787514318837</v>
       </c>
       <c r="E98" t="n">
-        <v>1.227904235810237</v>
+        <v>1.224589351540777</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2054969675311322</v>
+        <v>0.2000854897921004</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1397106100760495</v>
+        <v>-0.134635972428976</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3268543301467114</v>
       </c>
       <c r="E99" t="n">
-        <v>1.141663728154172</v>
+        <v>1.138051354270787</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2263117963912125</v>
+        <v>0.221671588021618</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1420763608153644</v>
+        <v>-0.1372409740747287</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3345163038220611</v>
       </c>
       <c r="E100" t="n">
-        <v>1.05345412257736</v>
+        <v>1.050236827493421</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2383042480764024</v>
+        <v>0.2336278372670181</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1566014092667272</v>
+        <v>-0.1517581524304849</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3363497224524831</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9628583040126563</v>
+        <v>0.9599904411736464</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2325575042645336</v>
+        <v>0.2262787419896652</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1703567623677739</v>
+        <v>-0.1651026865408722</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3412609831705819</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9018115464121305</v>
+        <v>0.8996567142350698</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2387182151053045</v>
+        <v>0.2327432385208471</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1958417059607533</v>
+        <v>-0.1901327386077957</v>
       </c>
     </row>
   </sheetData>
